--- a/เช็คชื่อ/[2021-07-07] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-07] เอกสารเช็คชื่อ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CADA78-8B4D-4A87-A6A0-F94F1497AD9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB814B-1D51-4358-A8D4-1B1C85B8F50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>แก้ UI ER</t>
+  </si>
+  <si>
+    <t>หาเป้าหมาย แก้ UI</t>
+  </si>
+  <si>
+    <t>5 โมงไม่ว่าง</t>
+  </si>
+  <si>
+    <t>3 ทุ่มไม่ว่าง</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1873,6 +1882,177 @@
         <v>1</v>
       </c>
     </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="10">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="10">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="10">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
